--- a/GL30_Script_ManageChartofAccountValues_21B.xlsx
+++ b/GL30_Script_ManageChartofAccountValues_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GNB GL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CD165A-94E3-4B8D-837B-F8AC314D08D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A4DB35-FD02-4469-82DB-1B3FFF3A8849}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ManageChartAccountValues" sheetId="30" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="327">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -498,9 +498,6 @@
     <t>Search ValueSetCOde</t>
   </si>
   <si>
-    <t>SetDelay</t>
-  </si>
-  <si>
     <t>Wait</t>
   </si>
   <si>
@@ -1003,6 +1000,12 @@
   </si>
   <si>
     <t>Step 69</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>WaitForDelay</t>
   </si>
 </sst>
 </file>
@@ -18566,7 +18569,7 @@
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -18628,7 +18631,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="13">
@@ -18658,7 +18661,7 @@
         <v>41</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="10"/>
@@ -18694,12 +18697,12 @@
         <v>41</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N3" s="10"/>
     </row>
@@ -18712,10 +18715,10 @@
         <v>38</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>290</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>291</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>23</v>
@@ -18735,7 +18738,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N4" s="10"/>
     </row>
@@ -18771,7 +18774,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="10"/>
       <c r="M5" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N5" s="10"/>
     </row>
@@ -18807,7 +18810,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="10"/>
       <c r="M6" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N6" s="10"/>
     </row>
@@ -18843,7 +18846,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N7" s="10"/>
     </row>
@@ -18876,12 +18879,12 @@
         <v>41</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N8" s="10"/>
     </row>
@@ -18915,7 +18918,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="16"/>
       <c r="M9" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N9" s="10"/>
     </row>
@@ -18948,12 +18951,12 @@
         <v>41</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N10" s="10"/>
     </row>
@@ -18987,7 +18990,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="16"/>
       <c r="M11" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N11" s="10"/>
     </row>
@@ -19020,12 +19023,12 @@
         <v>41</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N12" s="10"/>
     </row>
@@ -19059,7 +19062,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="16"/>
       <c r="M13" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N13" s="10"/>
     </row>
@@ -19074,7 +19077,7 @@
         <v>117</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>35</v>
@@ -19086,18 +19089,18 @@
         <v>36</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
       <c r="M14" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N14" s="18"/>
     </row>
@@ -19112,10 +19115,10 @@
         <v>75</v>
       </c>
       <c r="D15" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>224</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>225</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>23</v>
@@ -19124,14 +19127,14 @@
         <v>20</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="19"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
       <c r="M15" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N15" s="18"/>
     </row>
@@ -19140,16 +19143,16 @@
         <v>140</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>118</v>
       </c>
       <c r="D16" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>227</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>228</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>23</v>
@@ -19158,18 +19161,18 @@
         <v>36</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
       <c r="M16" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N16" s="18"/>
     </row>
@@ -19178,16 +19181,16 @@
         <v>140</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>119</v>
       </c>
       <c r="D17" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>230</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>231</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>23</v>
@@ -19196,14 +19199,14 @@
         <v>20</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
       <c r="M17" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N17" s="18"/>
     </row>
@@ -19212,34 +19215,34 @@
         <v>140</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>120</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>66</v>
+        <v>325</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>157</v>
+        <v>326</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K18" s="10"/>
       <c r="L18" s="17"/>
       <c r="M18" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N18" s="21"/>
     </row>
@@ -19248,16 +19251,16 @@
         <v>140</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>121</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>233</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>23</v>
@@ -19266,18 +19269,18 @@
         <v>36</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N19" s="10"/>
     </row>
@@ -19286,16 +19289,16 @@
         <v>140</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>122</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>235</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>236</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>23</v>
@@ -19304,7 +19307,7 @@
         <v>20</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>21</v>
@@ -19313,7 +19316,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N20" s="10"/>
     </row>
@@ -19322,16 +19325,16 @@
         <v>140</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>123</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>237</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>238</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>23</v>
@@ -19340,7 +19343,7 @@
         <v>40</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I21" s="17" t="s">
         <v>41</v>
@@ -19351,7 +19354,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
       <c r="M21" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N21" s="18"/>
     </row>
@@ -19360,16 +19363,16 @@
         <v>140</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>124</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>239</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>240</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>23</v>
@@ -19384,12 +19387,12 @@
         <v>41</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N22" s="18"/>
     </row>
@@ -19398,16 +19401,16 @@
         <v>140</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>125</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>241</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>242</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>23</v>
@@ -19423,7 +19426,7 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
       <c r="M23" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N23" s="18"/>
     </row>
@@ -19432,16 +19435,16 @@
         <v>140</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>126</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>243</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>244</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>23</v>
@@ -19450,18 +19453,18 @@
         <v>36</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
       <c r="M24" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N24" s="18"/>
     </row>
@@ -19470,16 +19473,16 @@
         <v>140</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>127</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>246</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>247</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>23</v>
@@ -19488,14 +19491,14 @@
         <v>20</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
       <c r="M25" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N25" s="18"/>
     </row>
@@ -19528,12 +19531,12 @@
         <v>41</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K26" s="10"/>
       <c r="L26" s="13"/>
       <c r="M26" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N26" s="10"/>
     </row>
@@ -19571,7 +19574,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="16"/>
       <c r="M27" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N27" s="10"/>
     </row>
@@ -19583,7 +19586,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>146</v>
@@ -19609,7 +19612,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="16"/>
       <c r="M28" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N28" s="10"/>
     </row>
@@ -19642,12 +19645,12 @@
         <v>41</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K29" s="10"/>
       <c r="L29" s="13"/>
       <c r="M29" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N29" s="10"/>
     </row>
@@ -19681,7 +19684,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="16"/>
       <c r="M30" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N30" s="10"/>
     </row>
@@ -19696,28 +19699,28 @@
         <v>132</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>66</v>
+        <v>325</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>157</v>
+        <v>326</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
       <c r="M31" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N31" s="10"/>
     </row>
@@ -19732,7 +19735,7 @@
         <v>133</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>35</v>
@@ -19744,18 +19747,18 @@
         <v>36</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K32" s="10"/>
       <c r="L32" s="13"/>
       <c r="M32" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N32" s="10"/>
     </row>
@@ -19770,10 +19773,10 @@
         <v>134</v>
       </c>
       <c r="D33" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>162</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>163</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>23</v>
@@ -19782,14 +19785,14 @@
         <v>20</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="15"/>
       <c r="K33" s="11"/>
       <c r="L33" s="16"/>
       <c r="M33" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N33" s="10"/>
     </row>
@@ -19804,10 +19807,10 @@
         <v>135</v>
       </c>
       <c r="D34" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>167</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>23</v>
@@ -19816,14 +19819,14 @@
         <v>20</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="15"/>
       <c r="K34" s="11"/>
       <c r="L34" s="16"/>
       <c r="M34" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N34" s="10"/>
     </row>
@@ -19832,13 +19835,13 @@
         <v>140</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>136</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>35</v>
@@ -19850,18 +19853,18 @@
         <v>36</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K35" s="10"/>
       <c r="L35" s="13"/>
       <c r="M35" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N35" s="10"/>
     </row>
@@ -19870,13 +19873,13 @@
         <v>140</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>137</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>35</v>
@@ -19888,18 +19891,18 @@
         <v>36</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K36" s="10"/>
       <c r="L36" s="13"/>
       <c r="M36" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N36" s="10"/>
     </row>
@@ -19908,16 +19911,16 @@
         <v>140</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>138</v>
       </c>
       <c r="D37" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>176</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>23</v>
@@ -19926,14 +19929,14 @@
         <v>20</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="15"/>
       <c r="K37" s="11"/>
       <c r="L37" s="16"/>
       <c r="M37" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N37" s="10"/>
     </row>
@@ -19942,13 +19945,13 @@
         <v>140</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>139</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>35</v>
@@ -19960,18 +19963,18 @@
         <v>36</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K38" s="10"/>
       <c r="L38" s="13"/>
       <c r="M38" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N38" s="10"/>
     </row>
@@ -19980,16 +19983,16 @@
         <v>140</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D39" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>194</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>23</v>
@@ -19998,18 +20001,18 @@
         <v>40</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I39" s="11" t="s">
         <v>41</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K39" s="11"/>
       <c r="L39" s="16"/>
       <c r="M39" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N39" s="10"/>
     </row>
@@ -20018,16 +20021,16 @@
         <v>140</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>23</v>
@@ -20036,18 +20039,18 @@
         <v>40</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I40" s="11" t="s">
         <v>41</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K40" s="11"/>
       <c r="L40" s="16"/>
       <c r="M40" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N40" s="10"/>
     </row>
@@ -20056,34 +20059,34 @@
         <v>140</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F41" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I41" s="17"/>
       <c r="J41" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
       <c r="M41" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N41" s="18"/>
     </row>
@@ -20092,16 +20095,16 @@
         <v>140</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>23</v>
@@ -20110,18 +20113,18 @@
         <v>40</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I42" s="11" t="s">
         <v>41</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K42" s="11"/>
       <c r="L42" s="16"/>
       <c r="M42" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N42" s="10"/>
     </row>
@@ -20130,34 +20133,34 @@
         <v>140</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I43" s="17"/>
       <c r="J43" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K43" s="17"/>
       <c r="L43" s="17"/>
       <c r="M43" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N43" s="18"/>
     </row>
@@ -20166,16 +20169,16 @@
         <v>140</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>23</v>
@@ -20184,18 +20187,18 @@
         <v>40</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I44" s="11" t="s">
         <v>41</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K44" s="11"/>
       <c r="L44" s="16"/>
       <c r="M44" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N44" s="10"/>
     </row>
@@ -20204,490 +20207,490 @@
         <v>140</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I45" s="17"/>
       <c r="J45" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K45" s="17"/>
       <c r="L45" s="17"/>
       <c r="M45" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N45" s="18"/>
     </row>
     <row r="46" spans="1:14" ht="13">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I46" s="11" t="s">
         <v>41</v>
       </c>
       <c r="J46" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K46" s="11"/>
       <c r="L46" s="16"/>
       <c r="M46" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N46" s="10"/>
     </row>
     <row r="47" spans="1:14" s="6" customFormat="1" ht="13">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I47" s="17"/>
       <c r="J47" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K47" s="17"/>
       <c r="L47" s="17"/>
       <c r="M47" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N47" s="18"/>
     </row>
     <row r="48" spans="1:14" ht="13">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>41</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K48" s="11"/>
       <c r="L48" s="16"/>
       <c r="M48" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N48" s="10"/>
     </row>
     <row r="49" spans="1:14" s="6" customFormat="1" ht="13">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I49" s="17"/>
       <c r="J49" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K49" s="17"/>
       <c r="L49" s="17"/>
       <c r="M49" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N49" s="18"/>
     </row>
     <row r="50" spans="1:14" ht="13">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>41</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K50" s="11"/>
       <c r="L50" s="16"/>
       <c r="M50" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N50" s="10"/>
     </row>
     <row r="51" spans="1:14" s="6" customFormat="1" ht="13">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F51" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I51" s="17"/>
       <c r="J51" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K51" s="17"/>
       <c r="L51" s="17"/>
       <c r="M51" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N51" s="18"/>
     </row>
     <row r="52" spans="1:14" ht="13">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I52" s="11" t="s">
         <v>41</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K52" s="11"/>
       <c r="L52" s="16"/>
       <c r="M52" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N52" s="10"/>
     </row>
     <row r="53" spans="1:14" s="6" customFormat="1" ht="13">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F53" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I53" s="17"/>
       <c r="J53" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K53" s="17"/>
       <c r="L53" s="17"/>
       <c r="M53" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N53" s="18"/>
     </row>
     <row r="54" spans="1:14" ht="13">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I54" s="11" t="s">
         <v>41</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K54" s="11"/>
       <c r="L54" s="16"/>
       <c r="M54" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N54" s="10"/>
     </row>
     <row r="55" spans="1:14" s="6" customFormat="1" ht="13">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F55" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I55" s="17"/>
       <c r="J55" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K55" s="17"/>
       <c r="L55" s="17"/>
       <c r="M55" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N55" s="18"/>
     </row>
     <row r="56" spans="1:14" ht="13">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I56" s="11" t="s">
         <v>41</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K56" s="11"/>
       <c r="L56" s="16"/>
       <c r="M56" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N56" s="10"/>
     </row>
     <row r="57" spans="1:14" s="6" customFormat="1" ht="13">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F57" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K57" s="17"/>
       <c r="L57" s="17"/>
       <c r="M57" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N57" s="18"/>
     </row>
     <row r="58" spans="1:14" ht="13">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I58" s="11" t="s">
         <v>41</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K58" s="11"/>
       <c r="L58" s="16"/>
       <c r="M58" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N58" s="10"/>
     </row>
@@ -20699,31 +20702,31 @@
         <v>1</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>66</v>
+        <v>325</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>157</v>
+        <v>326</v>
       </c>
       <c r="H59" s="13"/>
       <c r="I59" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
       <c r="M59" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N59" s="10"/>
     </row>
@@ -20732,10 +20735,10 @@
         <v>140</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>94</v>
@@ -20757,7 +20760,7 @@
       <c r="K60" s="11"/>
       <c r="L60" s="16"/>
       <c r="M60" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N60" s="10"/>
     </row>
@@ -20766,13 +20769,13 @@
         <v>140</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>35</v>
@@ -20784,18 +20787,18 @@
         <v>36</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K61" s="10"/>
       <c r="L61" s="13"/>
       <c r="M61" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N61" s="10"/>
     </row>
@@ -20804,10 +20807,10 @@
         <v>140</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>94</v>
@@ -20829,20 +20832,20 @@
       <c r="K62" s="11"/>
       <c r="L62" s="16"/>
       <c r="M62" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N62" s="10"/>
     </row>
     <row r="63" spans="1:14" ht="13">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>35</v>
@@ -20860,12 +20863,12 @@
         <v>41</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K63" s="10"/>
       <c r="L63" s="13"/>
       <c r="M63" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N63" s="10"/>
     </row>
@@ -20875,7 +20878,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>53</v>
@@ -20901,7 +20904,7 @@
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
       <c r="M64" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N64" s="10"/>
     </row>
@@ -20911,7 +20914,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>99</v>
@@ -20932,12 +20935,12 @@
         <v>41</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K65" s="10"/>
       <c r="L65" s="10"/>
       <c r="M65" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N65" s="10"/>
     </row>
@@ -20947,7 +20950,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>102</v>
@@ -20973,7 +20976,7 @@
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
       <c r="M66" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N66" s="10"/>
     </row>
@@ -20983,7 +20986,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>104</v>
@@ -21004,12 +21007,12 @@
         <v>41</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
       <c r="M67" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N67" s="10"/>
     </row>
@@ -21019,7 +21022,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>107</v>
@@ -21040,12 +21043,12 @@
         <v>41</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
       <c r="M68" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N68" s="10"/>
     </row>
@@ -21055,7 +21058,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>110</v>
@@ -21081,7 +21084,7 @@
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
       <c r="M69" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N69" s="10"/>
     </row>
@@ -21091,7 +21094,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>112</v>
@@ -21120,7 +21123,6 @@
       <c r="N70" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M70" xr:uid="{B8AB4C23-8945-47BD-9752-14EDF4F96970}"/>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="H8:H9">
     <cfRule type="duplicateValues" dxfId="87" priority="290"/>
@@ -21371,7 +21373,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>23</v>
@@ -21399,7 +21401,7 @@
         <v>34</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>23</v>
@@ -21715,13 +21717,13 @@
     </row>
     <row r="29" spans="1:4" ht="13">
       <c r="A29" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>23</v>
@@ -21729,13 +21731,13 @@
     </row>
     <row r="30" spans="1:4" ht="13">
       <c r="A30" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>23</v>
@@ -21743,13 +21745,13 @@
     </row>
     <row r="31" spans="1:4" ht="13">
       <c r="A31" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>23</v>
@@ -21757,13 +21759,13 @@
     </row>
     <row r="32" spans="1:4" ht="13">
       <c r="A32" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>23</v>
@@ -21771,7 +21773,7 @@
     </row>
     <row r="33" spans="1:4" ht="13">
       <c r="A33" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>34</v>
@@ -21785,13 +21787,13 @@
     </row>
     <row r="34" spans="1:4" ht="13">
       <c r="A34" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>23</v>
@@ -21799,13 +21801,13 @@
     </row>
     <row r="35" spans="1:4" ht="13">
       <c r="A35" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>23</v>
@@ -21813,13 +21815,13 @@
     </row>
     <row r="36" spans="1:4" ht="13">
       <c r="A36" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>23</v>
@@ -21827,13 +21829,13 @@
     </row>
     <row r="37" spans="1:4" ht="13">
       <c r="A37" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>23</v>
@@ -21841,13 +21843,13 @@
     </row>
     <row r="38" spans="1:4" ht="13">
       <c r="A38" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>23</v>
@@ -21855,13 +21857,13 @@
     </row>
     <row r="39" spans="1:4" ht="13">
       <c r="A39" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>23</v>
@@ -21869,13 +21871,13 @@
     </row>
     <row r="40" spans="1:4" ht="13">
       <c r="A40" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>23</v>
@@ -21883,13 +21885,13 @@
     </row>
     <row r="41" spans="1:4" ht="13">
       <c r="A41" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>23</v>
@@ -21897,13 +21899,13 @@
     </row>
     <row r="42" spans="1:4" ht="13">
       <c r="A42" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>23</v>
@@ -21911,13 +21913,13 @@
     </row>
     <row r="43" spans="1:4" ht="13">
       <c r="A43" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>23</v>
@@ -21925,13 +21927,13 @@
     </row>
     <row r="44" spans="1:4" ht="13">
       <c r="A44" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>23</v>
@@ -21939,13 +21941,13 @@
     </row>
     <row r="45" spans="1:4" ht="13">
       <c r="A45" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>23</v>
@@ -21953,13 +21955,13 @@
     </row>
     <row r="46" spans="1:4" ht="13">
       <c r="A46" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>23</v>
@@ -21967,13 +21969,13 @@
     </row>
     <row r="47" spans="1:4" ht="13">
       <c r="A47" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>23</v>
@@ -21981,13 +21983,13 @@
     </row>
     <row r="48" spans="1:4" ht="13">
       <c r="A48" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>23</v>
@@ -22009,13 +22011,13 @@
     </row>
     <row r="50" spans="1:4" ht="13">
       <c r="A50" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>23</v>
@@ -22023,13 +22025,13 @@
     </row>
     <row r="51" spans="1:4" ht="13">
       <c r="A51" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>23</v>
@@ -22037,13 +22039,13 @@
     </row>
     <row r="52" spans="1:4" ht="13">
       <c r="A52" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>23</v>
@@ -22051,13 +22053,13 @@
     </row>
     <row r="53" spans="1:4" ht="13">
       <c r="A53" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>23</v>
@@ -22065,13 +22067,13 @@
     </row>
     <row r="54" spans="1:4" ht="13">
       <c r="A54" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>23</v>
@@ -22079,13 +22081,13 @@
     </row>
     <row r="55" spans="1:4" ht="13">
       <c r="A55" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>23</v>
@@ -22093,13 +22095,13 @@
     </row>
     <row r="56" spans="1:4" ht="13">
       <c r="A56" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>23</v>
@@ -22107,13 +22109,13 @@
     </row>
     <row r="57" spans="1:4" ht="13">
       <c r="A57" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>23</v>
@@ -22121,13 +22123,13 @@
     </row>
     <row r="58" spans="1:4" ht="13">
       <c r="A58" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>23</v>
@@ -22135,13 +22137,13 @@
     </row>
     <row r="59" spans="1:4" ht="13">
       <c r="A59" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>23</v>
@@ -22149,13 +22151,13 @@
     </row>
     <row r="60" spans="1:4" ht="13">
       <c r="A60" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>23</v>

--- a/GL30_Script_ManageChartofAccountValues_21B.xlsx
+++ b/GL30_Script_ManageChartofAccountValues_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PriyankJain\Desktop\23June-GL Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A4DB35-FD02-4469-82DB-1B3FFF3A8849}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31F790F-02FA-4B6D-8F21-AE9C5CF6D138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ManageChartAccountValues" sheetId="30" r:id="rId1"/>
@@ -18,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AllObjects!$A$1:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ManageChartAccountValues!$A$1:$M$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ManageChartAccountValues!$A$1:$N$57</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="300">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -564,9 +564,6 @@
     <t>//div[@title='Create Value']/h1</t>
   </si>
   <si>
-    <t>Create Value Page</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -624,9 +621,6 @@
     <t>Step 42</t>
   </si>
   <si>
-    <t>Step 58</t>
-  </si>
-  <si>
     <t>Enter ValueDescription</t>
   </si>
   <si>
@@ -645,51 +639,6 @@
     <t>Enter EndDate</t>
   </si>
   <si>
-    <t>SummarySelect entered</t>
-  </si>
-  <si>
-    <t>Enter SummarySelect</t>
-  </si>
-  <si>
-    <t>SelectItemByVisibleText</t>
-  </si>
-  <si>
-    <t>AllowPosting entered</t>
-  </si>
-  <si>
-    <t>Enter AllowPosting</t>
-  </si>
-  <si>
-    <t>AllowBudgeting entered</t>
-  </si>
-  <si>
-    <t>Enter AllowBudgeting</t>
-  </si>
-  <si>
-    <t>AccountType entered</t>
-  </si>
-  <si>
-    <t>Enter AccountType</t>
-  </si>
-  <si>
-    <t>TPCAccount entered</t>
-  </si>
-  <si>
-    <t>Enter TPCAccount</t>
-  </si>
-  <si>
-    <t>Reconcile entered</t>
-  </si>
-  <si>
-    <t>Enter Reconcile</t>
-  </si>
-  <si>
-    <t>FinancialCategory entered</t>
-  </si>
-  <si>
-    <t>Enter FinancialCategory</t>
-  </si>
-  <si>
     <t>Explicit wait for SetupDropDown</t>
   </si>
   <si>
@@ -828,9 +777,6 @@
     <t>//span[label[text()='Financial Category']]/select</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Tab</t>
   </si>
   <si>
@@ -948,15 +894,6 @@
     <t>Step 56</t>
   </si>
   <si>
-    <t>Step 57</t>
-  </si>
-  <si>
-    <t>Step 59</t>
-  </si>
-  <si>
-    <t>Step 60</t>
-  </si>
-  <si>
     <t>MediumExplicitWait</t>
   </si>
   <si>
@@ -975,37 +912,19 @@
     <t>CHANGE HISTORY</t>
   </si>
   <si>
-    <t>Step 61</t>
-  </si>
-  <si>
-    <t>Step 62</t>
-  </si>
-  <si>
-    <t>Step 63</t>
-  </si>
-  <si>
-    <t>Step 64</t>
-  </si>
-  <si>
-    <t>Step 65</t>
-  </si>
-  <si>
-    <t>Step 66</t>
-  </si>
-  <si>
-    <t>Step 67</t>
-  </si>
-  <si>
-    <t>Step 68</t>
-  </si>
-  <si>
-    <t>Step 69</t>
-  </si>
-  <si>
     <t>Common</t>
   </si>
   <si>
-    <t>WaitForDelay</t>
+    <t>WaitForDuration</t>
+  </si>
+  <si>
+    <t>Click on Home</t>
+  </si>
+  <si>
+    <t>Clicked on Home</t>
+  </si>
+  <si>
+    <t>Explicit wait for Username Click</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +938,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _P_t_s_-;\-* #,##0.00\ _P_t_s_-;_-* &quot;-&quot;??\ _P_t_s_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1207,21 +1126,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="52">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1474,30 +1380,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9472,44 +9354,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="51" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="47" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="47" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="51" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7827">
@@ -17341,187 +17207,7 @@
     <cellStyle name="Warning Text 9" xfId="5939" xr:uid="{00000000-0005-0000-0000-0000911E0000}"/>
     <cellStyle name="Warning Text 9 2" xfId="7821" xr:uid="{00000000-0005-0000-0000-0000921E0000}"/>
   </cellStyles>
-  <dxfs count="88">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="70">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -18566,2737 +18252,2140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.36328125" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="16.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.7265625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.7265625" style="2" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="20.453125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="21.7265625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="24.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="14.1796875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.453125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.453125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="26" style="3" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="14" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="14.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="16384" width="9.1796875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="24" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="14" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="9" t="s">
-        <v>315</v>
+      <c r="N1" s="14" t="s">
+        <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="13">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="5"/>
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="M2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3"/>
+      <c r="M3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10" t="s">
+      <c r="E4" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="10"/>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="M4" t="s">
+        <v>273</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" ht="13">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10" t="s">
+    <row r="5" spans="1:14">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="M5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="M6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="5"/>
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="C7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="M7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="H8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13" t="s">
+      <c r="J8" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8"/>
+      <c r="M8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10"/>
+      <c r="M10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12"/>
+      <c r="M12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="10" customFormat="1">
+      <c r="A14" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="10" customFormat="1">
+      <c r="A15" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="10" customFormat="1">
+      <c r="A16" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="10" customFormat="1">
+      <c r="A17" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="8" customFormat="1">
+      <c r="A18" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="12"/>
+      <c r="M18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="M19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="M20" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="10" customFormat="1">
+      <c r="A21" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="11"/>
+      <c r="L21" s="9"/>
+      <c r="M21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="10" customFormat="1">
+      <c r="A22" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="N3" s="10"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" t="s">
+        <v>273</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" ht="13">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10" t="s">
+    <row r="23" spans="1:13" s="10" customFormat="1">
+      <c r="A23" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="9"/>
+      <c r="M23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="10" customFormat="1">
+      <c r="A24" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="10" customFormat="1">
+      <c r="A25" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26"/>
+      <c r="M26" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="4"/>
+      <c r="M27" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="12" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="4"/>
+      <c r="M28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29"/>
+      <c r="M29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" t="s">
+        <v>295</v>
+      </c>
+      <c r="G31" t="s">
+        <v>296</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32"/>
+      <c r="M32" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L34" s="4"/>
+      <c r="M34" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35"/>
+      <c r="M35" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36"/>
+      <c r="M36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="M37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38"/>
+      <c r="M38" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="K39" s="6"/>
+      <c r="L39" s="4"/>
+      <c r="M39" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K40" s="6"/>
+      <c r="L40" s="4"/>
+      <c r="M40" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="10" customFormat="1">
+      <c r="A41" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K42" s="6"/>
+      <c r="L42" s="4"/>
+      <c r="M42" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="10" customFormat="1">
+      <c r="A43" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K44" s="6"/>
+      <c r="L44" s="4"/>
+      <c r="M44" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="10" customFormat="1">
+      <c r="A45" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F46" t="s">
+        <v>295</v>
+      </c>
+      <c r="G46" t="s">
+        <v>296</v>
+      </c>
+      <c r="H46"/>
+      <c r="I46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L47" s="4"/>
+      <c r="M47" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="L48"/>
+      <c r="M48" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A49" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L49" s="4"/>
+      <c r="M49" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="5"/>
+      <c r="B50" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K50" s="2"/>
+      <c r="L50"/>
+      <c r="M50" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="5"/>
+      <c r="B51" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="C51" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="2"/>
+      <c r="M51" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="5"/>
+      <c r="B52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J52" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="K52" s="2"/>
+      <c r="M52" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="5"/>
+      <c r="B53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G53" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="10" t="s">
+      <c r="H53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J53" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N4" s="10"/>
+      <c r="K53" s="2"/>
+      <c r="M53" t="s">
+        <v>273</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" ht="13">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="10" t="s">
+    <row r="54" spans="1:13">
+      <c r="A54" s="5"/>
+      <c r="B54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="10" t="s">
+      <c r="G54" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I54" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N5" s="10"/>
+      <c r="J54" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K54" s="2"/>
+      <c r="M54" t="s">
+        <v>273</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" ht="13">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="10" t="s">
+    <row r="55" spans="1:13">
+      <c r="A55" s="5"/>
+      <c r="B55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="10" t="s">
+      <c r="G55" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I55" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N6" s="10"/>
+      <c r="J55" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K55" s="2"/>
+      <c r="M55" t="s">
+        <v>273</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" ht="13">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10" t="s">
+    <row r="56" spans="1:13">
+      <c r="A56" s="5"/>
+      <c r="B56" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="C56" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G56" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="10" t="s">
+      <c r="H56" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J56" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N7" s="10"/>
+      <c r="K56" s="2"/>
+      <c r="M56" t="s">
+        <v>273</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" ht="13">
-      <c r="A8" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="10" t="s">
+    <row r="57" spans="1:13">
+      <c r="A57" s="5"/>
+      <c r="B57" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="1:14" ht="13">
-      <c r="A9" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="1:14" ht="13">
-      <c r="A10" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="1:14" ht="13">
-      <c r="A11" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N11" s="10"/>
-    </row>
-    <row r="12" spans="1:14" ht="13">
-      <c r="A12" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="1:14" ht="13">
-      <c r="A13" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N13" s="10"/>
-    </row>
-    <row r="14" spans="1:14" s="6" customFormat="1" ht="13">
-      <c r="A14" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N14" s="18"/>
-    </row>
-    <row r="15" spans="1:14" s="6" customFormat="1" ht="13">
-      <c r="A15" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N15" s="18"/>
-    </row>
-    <row r="16" spans="1:14" s="6" customFormat="1" ht="13">
-      <c r="A16" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N16" s="18"/>
-    </row>
-    <row r="17" spans="1:14" s="6" customFormat="1" ht="13">
-      <c r="A17" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N17" s="18"/>
-    </row>
-    <row r="18" spans="1:14" s="5" customFormat="1" ht="13">
-      <c r="A18" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N18" s="21"/>
-    </row>
-    <row r="19" spans="1:14" ht="13">
-      <c r="A19" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N19" s="10"/>
-    </row>
-    <row r="20" spans="1:14" ht="13">
-      <c r="A20" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="I20" s="10" t="s">
+      <c r="C57" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N20" s="10"/>
-    </row>
-    <row r="21" spans="1:14" s="6" customFormat="1" ht="13">
-      <c r="A21" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N21" s="18"/>
-    </row>
-    <row r="22" spans="1:14" s="6" customFormat="1" ht="13">
-      <c r="A22" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N22" s="18"/>
-    </row>
-    <row r="23" spans="1:14" s="6" customFormat="1" ht="13">
-      <c r="A23" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N23" s="18"/>
-    </row>
-    <row r="24" spans="1:14" s="6" customFormat="1" ht="13">
-      <c r="A24" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N24" s="18"/>
-    </row>
-    <row r="25" spans="1:14" s="6" customFormat="1" ht="13">
-      <c r="A25" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N25" s="18"/>
-    </row>
-    <row r="26" spans="1:14" ht="13">
-      <c r="A26" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N26" s="10"/>
-    </row>
-    <row r="27" spans="1:14" ht="13">
-      <c r="A27" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="K27" s="11"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N27" s="10"/>
-    </row>
-    <row r="28" spans="1:14" ht="12" customHeight="1">
-      <c r="A28" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="K28" s="11"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N28" s="10"/>
-    </row>
-    <row r="29" spans="1:14" ht="13">
-      <c r="A29" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="K29" s="10"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N29" s="10"/>
-    </row>
-    <row r="30" spans="1:14" ht="13">
-      <c r="A30" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N30" s="10"/>
-    </row>
-    <row r="31" spans="1:14" ht="13">
-      <c r="A31" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J31" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N31" s="10"/>
-    </row>
-    <row r="32" spans="1:14" ht="13">
-      <c r="A32" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J32" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="K32" s="10"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N32" s="10"/>
-    </row>
-    <row r="33" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A33" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N33" s="10"/>
-    </row>
-    <row r="34" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A34" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N34" s="10"/>
-    </row>
-    <row r="35" spans="1:14" ht="13">
-      <c r="A35" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="K35" s="10"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N35" s="10"/>
-    </row>
-    <row r="36" spans="1:14" ht="13">
-      <c r="A36" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="K36" s="10"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N36" s="10"/>
-    </row>
-    <row r="37" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A37" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="I37" s="11"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N37" s="10"/>
-    </row>
-    <row r="38" spans="1:14" ht="13">
-      <c r="A38" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J38" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N38" s="10"/>
-    </row>
-    <row r="39" spans="1:14" ht="13">
-      <c r="A39" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="K39" s="11"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N39" s="10"/>
-    </row>
-    <row r="40" spans="1:14" ht="13">
-      <c r="A40" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J40" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="K40" s="11"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N40" s="10"/>
-    </row>
-    <row r="41" spans="1:14" s="6" customFormat="1" ht="13">
-      <c r="A41" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="I41" s="17"/>
-      <c r="J41" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N41" s="18"/>
-    </row>
-    <row r="42" spans="1:14" ht="13">
-      <c r="A42" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J42" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="K42" s="11"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N42" s="10"/>
-    </row>
-    <row r="43" spans="1:14" s="6" customFormat="1" ht="13">
-      <c r="A43" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="I43" s="17"/>
-      <c r="J43" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N43" s="18"/>
-    </row>
-    <row r="44" spans="1:14" ht="13">
-      <c r="A44" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J44" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="K44" s="11"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N44" s="10"/>
-    </row>
-    <row r="45" spans="1:14" s="6" customFormat="1" ht="13">
-      <c r="A45" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="I45" s="17"/>
-      <c r="J45" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N45" s="18"/>
-    </row>
-    <row r="46" spans="1:14" ht="13">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J46" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="K46" s="11"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N46" s="10"/>
-    </row>
-    <row r="47" spans="1:14" s="6" customFormat="1" ht="13">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I47" s="17"/>
-      <c r="J47" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N47" s="18"/>
-    </row>
-    <row r="48" spans="1:14" ht="13">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="K48" s="11"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N48" s="10"/>
-    </row>
-    <row r="49" spans="1:14" s="6" customFormat="1" ht="13">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="I49" s="17"/>
-      <c r="J49" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N49" s="18"/>
-    </row>
-    <row r="50" spans="1:14" ht="13">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="K50" s="11"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N50" s="10"/>
-    </row>
-    <row r="51" spans="1:14" s="6" customFormat="1" ht="13">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="I51" s="17"/>
-      <c r="J51" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N51" s="18"/>
-    </row>
-    <row r="52" spans="1:14" ht="13">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="K52" s="11"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N52" s="10"/>
-    </row>
-    <row r="53" spans="1:14" s="6" customFormat="1" ht="13">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="I53" s="17"/>
-      <c r="J53" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N53" s="18"/>
-    </row>
-    <row r="54" spans="1:14" ht="13">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J54" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="K54" s="11"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N54" s="10"/>
-    </row>
-    <row r="55" spans="1:14" s="6" customFormat="1" ht="13">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="I55" s="17"/>
-      <c r="J55" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N55" s="18"/>
-    </row>
-    <row r="56" spans="1:14" ht="13">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="K56" s="11"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N56" s="10"/>
-    </row>
-    <row r="57" spans="1:14" s="6" customFormat="1" ht="13">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="I57" s="17"/>
-      <c r="J57" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N57" s="18"/>
-    </row>
-    <row r="58" spans="1:14" ht="13">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J58" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="K58" s="11"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N58" s="10"/>
-    </row>
-    <row r="59" spans="1:14" ht="13">
-      <c r="A59" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="H59" s="13"/>
-      <c r="I59" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J59" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N59" s="10"/>
-    </row>
-    <row r="60" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A60" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I60" s="11"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N60" s="10"/>
-    </row>
-    <row r="61" spans="1:14" ht="13">
-      <c r="A61" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="I61" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J61" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="K61" s="10"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N61" s="10"/>
-    </row>
-    <row r="62" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A62" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I62" s="11"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N62" s="10"/>
-    </row>
-    <row r="63" spans="1:14" ht="13">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J63" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="K63" s="10"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N63" s="10"/>
-    </row>
-    <row r="64" spans="1:14" ht="13">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I64" s="10" t="s">
+      <c r="J57" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J64" s="10" t="s">
+      <c r="K57" s="2"/>
+      <c r="M57" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N64" s="10"/>
-    </row>
-    <row r="65" spans="1:14" ht="13">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I65" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J65" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N65" s="10"/>
-    </row>
-    <row r="66" spans="1:14" ht="13">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I66" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J66" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N66" s="10"/>
-    </row>
-    <row r="67" spans="1:14" ht="13">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="I67" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J67" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N67" s="10"/>
-    </row>
-    <row r="68" spans="1:14" ht="13">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I68" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J68" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N68" s="10"/>
-    </row>
-    <row r="69" spans="1:14" ht="13">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I69" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J69" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N69" s="10"/>
-    </row>
-    <row r="70" spans="1:14" ht="13">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J70" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N70" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="H8:H9">
-    <cfRule type="duplicateValues" dxfId="87" priority="290"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="290"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="duplicateValues" dxfId="86" priority="315"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="315"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="85" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="duplicateValues" dxfId="84" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="duplicateValues" dxfId="83" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="duplicateValues" dxfId="82" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="duplicateValues" dxfId="81" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="duplicateValues" dxfId="80" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="duplicateValues" dxfId="79" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="duplicateValues" dxfId="78" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="duplicateValues" dxfId="77" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="duplicateValues" dxfId="76" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="duplicateValues" dxfId="75" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="duplicateValues" dxfId="74" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="duplicateValues" dxfId="73" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="duplicateValues" dxfId="72" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="duplicateValues" dxfId="71" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="duplicateValues" dxfId="70" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="duplicateValues" dxfId="69" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="duplicateValues" dxfId="68" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="duplicateValues" dxfId="67" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="135"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58 H48 H50 H52 H54:H56">
-    <cfRule type="duplicateValues" dxfId="66" priority="111"/>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="duplicateValues" dxfId="48" priority="106"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58 H48 H50 H52 H54:H56">
-    <cfRule type="duplicateValues" dxfId="65" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="113"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48 J58 J56 J50 J52 J54">
-    <cfRule type="duplicateValues" dxfId="63" priority="108"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48 J58 J56 J50 J52 J54">
-    <cfRule type="duplicateValues" dxfId="62" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="110"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="duplicateValues" dxfId="60" priority="106"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J61">
-    <cfRule type="duplicateValues" dxfId="59" priority="107"/>
+  <conditionalFormatting sqref="J48">
+    <cfRule type="duplicateValues" dxfId="47" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="duplicateValues" dxfId="58" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="duplicateValues" dxfId="57" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="duplicateValues" dxfId="56" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="duplicateValues" dxfId="55" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="duplicateValues" dxfId="54" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="duplicateValues" dxfId="53" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="70"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J63">
-    <cfRule type="duplicateValues" dxfId="52" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="duplicateValues" dxfId="51" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="duplicateValues" dxfId="50" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="66"/>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="duplicateValues" dxfId="40" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="48" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="47" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="duplicateValues" dxfId="45" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H7">
-    <cfRule type="duplicateValues" dxfId="44" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="43" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="duplicateValues" dxfId="42" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="41" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="duplicateValues" dxfId="39" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="38" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="37" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="35" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="34" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="duplicateValues" dxfId="32" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="duplicateValues" dxfId="31" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="duplicateValues" dxfId="28" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J59">
+  <conditionalFormatting sqref="J46">
     <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="H46">
     <cfRule type="duplicateValues" dxfId="25" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" sqref="I21:I22 I2:I3 I5 I67:I68 I12 I14 I16 I18:I19 I24 I26 I29 I31:I32 I35:I36 I38 I61 I63 I65 I8 I10 I59" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" sqref="I21:I22 I2:I3 I5 I54:I55 I12 I14 I16 I18:I19 I24 I26 I29 I31:I32 I35:I36 I38 I48 I50 I52 I8 I10 I46" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F1:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21311,855 +20400,855 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="25.54296875" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="44.54296875" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="69.08984375" style="2" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14.1796875" style="2" customWidth="1" collapsed="1"/>
     <col min="5" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="15.5" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="B53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13">
-      <c r="A7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="10" t="s">
+    <row r="54" spans="1:4">
+      <c r="A54" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="C54" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13">
-      <c r="A8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="10" t="s">
+    <row r="55" spans="1:4">
+      <c r="A55" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="C55" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13">
-      <c r="A9" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" s="10" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="C56" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13">
-      <c r="A10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="10" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="C57" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13">
-      <c r="A11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="10" t="s">
+    <row r="58" spans="1:4">
+      <c r="A58" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="C58" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13">
-      <c r="A12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="10" t="s">
+    <row r="59" spans="1:4">
+      <c r="A59" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="C59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13">
-      <c r="A13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="10" t="s">
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="13">
-      <c r="A14" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="13">
-      <c r="A15" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13">
-      <c r="A16" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="13">
-      <c r="A17" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="13">
-      <c r="A18" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="13">
-      <c r="A19" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="13">
-      <c r="A20" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="13">
-      <c r="A21" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="13">
-      <c r="A22" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="13">
-      <c r="A23" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="13">
-      <c r="A24" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="13">
-      <c r="A25" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="13">
-      <c r="A26" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="13">
-      <c r="A27" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="13">
-      <c r="A28" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="13">
-      <c r="A29" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="13">
-      <c r="A30" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="13">
-      <c r="A31" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="13">
-      <c r="A32" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="13">
-      <c r="A33" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="13">
-      <c r="A34" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="13">
-      <c r="A35" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="13">
-      <c r="A36" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="13">
-      <c r="A37" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="13">
-      <c r="A38" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="13">
-      <c r="A39" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="13">
-      <c r="A40" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="13">
-      <c r="A41" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="13">
-      <c r="A42" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="13">
-      <c r="A43" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="13">
-      <c r="A44" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="13">
-      <c r="A45" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="13">
-      <c r="A46" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="13">
-      <c r="A47" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="13">
-      <c r="A48" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="13">
-      <c r="A49" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="13">
-      <c r="A50" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="13">
-      <c r="A51" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="13">
-      <c r="A52" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="13">
-      <c r="A53" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="13">
-      <c r="A54" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="13">
-      <c r="A55" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="13">
-      <c r="A56" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="13">
-      <c r="A57" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="13">
-      <c r="A58" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="13">
-      <c r="A59" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="13">
-      <c r="A60" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="D60" s="10" t="s">
+      <c r="C60" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>23</v>
       </c>
     </row>
